--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyBook Hype AMD\Project\tubespemstok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elokf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B19C2-040D-4590-96F3-A9135B5E2CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96339D36-5246-489B-B947-A768A6A782B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
     <sheet name="Day 2" sheetId="2" r:id="rId2"/>
     <sheet name="Day 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -41,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -129,16 +142,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -361,8 +374,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -398,7 +411,7 @@
         <v>45972.459803240738</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -412,7 +425,7 @@
         <v>45972.461840277778</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -426,7 +439,7 @@
         <v>45972.464039351849</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -440,7 +453,7 @@
         <v>45972.465370370373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -473,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>45972.513611111113</v>
+        <v>45972.465694444443</v>
       </c>
       <c r="C8" s="5">
         <v>45972.468576388892</v>
@@ -496,7 +509,7 @@
         <v>45972.472534722219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -524,7 +537,7 @@
         <v>45972.477222222224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -538,7 +551,7 @@
         <v>45972.478831018518</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -580,7 +593,7 @@
         <v>45972.489884259259</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -594,7 +607,7 @@
         <v>45972.498726851853</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -608,7 +621,7 @@
         <v>45972.499965277777</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -622,7 +635,7 @@
         <v>45972.50167824074</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -636,7 +649,7 @@
         <v>45972.502106481479</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -664,7 +677,7 @@
         <v>45972.50513888889</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -678,7 +691,7 @@
         <v>45972.50675925926</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -692,7 +705,7 @@
         <v>45972.507638888892</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -706,7 +719,7 @@
         <v>45972.509259259263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -720,7 +733,7 @@
         <v>45972.510185185187</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -734,7 +747,7 @@
         <v>45972.511493055557</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -960,10 +973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1034,7 @@
         <v>45973.316203703704</v>
       </c>
       <c r="C4" s="7">
-        <v>45973.315960648149</v>
+        <v>45973.317349537036</v>
       </c>
       <c r="D4" s="7">
         <v>45973.317557870374</v>
@@ -1077,7 +1090,7 @@
         <v>45973.327534722222</v>
       </c>
       <c r="C8" s="7">
-        <v>45973.327476851853</v>
+        <v>45973.32775462963</v>
       </c>
       <c r="D8" s="7">
         <v>45973.328935185185</v>
@@ -1273,7 +1286,7 @@
         <v>45973.346643518518</v>
       </c>
       <c r="C22" s="7">
-        <v>45973.34642361111</v>
+        <v>45973.347812499997</v>
       </c>
       <c r="D22" s="7">
         <v>45973.348229166666</v>
@@ -1419,7 +1432,7 @@
         <v>45973.369456018518</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>45973.371527777781</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>45973.372395833336</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>45973.374421296299</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1475,7 +1488,7 @@
         <v>45973.376388888886</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>45973.378645833334</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>45973.380671296298</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>45973.382696759261</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>45973.384722222225</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>45973.386747685188</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1553,13 +1566,17 @@
         <v>45973.38784722222</v>
       </c>
       <c r="C42" s="7">
-        <v>45973.386747685188</v>
+        <v>45973.388136574074</v>
       </c>
       <c r="D42" s="7">
         <v>45973.388773148145</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <f>-F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1573,7 +1590,7 @@
         <v>45973.393576388888</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1599,8 +1616,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1649,10 +1666,10 @@
         <v>45974.685219907406</v>
       </c>
       <c r="D3" s="5">
-        <v>45974.519814814812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45974.686481481483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1660,13 +1677,13 @@
         <v>45974.515509259261</v>
       </c>
       <c r="C4" s="5">
-        <v>45974.690312500003</v>
+        <v>45974.68822916667</v>
       </c>
       <c r="D4" s="5">
-        <v>45974.691631944443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45974.68954861111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1674,13 +1691,13 @@
         <v>45974.682395833333</v>
       </c>
       <c r="C5" s="5">
-        <v>45974.691851851851</v>
+        <v>45974.690462962964</v>
       </c>
       <c r="D5" s="5">
         <v>45974.691365740742</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1694,7 +1711,7 @@
         <v>45974.692835648151</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v>45974.694791666669</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1722,7 +1739,7 @@
         <v>45974.696331018517</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1736,7 +1753,7 @@
         <v>45974.698877314811</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1750,7 +1767,7 @@
         <v>45974.70113425926</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1764,7 +1781,7 @@
         <v>45974.701157407406</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1778,7 +1795,7 @@
         <v>45974.703460648147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1789,10 +1806,10 @@
         <v>45974.705046296294</v>
       </c>
       <c r="D13" s="5">
-        <v>45974.664085648146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45974.705752314818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v>45974.70758101852</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1820,7 +1837,7 @@
         <v>45974.708865740744</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1848,7 +1865,7 @@
         <v>45974.715439814812</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1862,7 +1879,7 @@
         <v>45974.718495370369</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>45974.719594907408</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1890,7 +1907,7 @@
         <v>45974.720520833333</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1918,7 +1935,7 @@
         <v>45974.725347222222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1932,7 +1949,7 @@
         <v>45974.729490740741</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1946,7 +1963,7 @@
         <v>45974.727152777778</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>45974.736284722225</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1974,7 +1991,7 @@
         <v>45974.739062499997</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2027,7 +2044,7 @@
         <v>45974.744328703702</v>
       </c>
       <c r="D30" s="5">
-        <v>45974.661770833336</v>
+        <v>45974.745104166665</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
